--- a/Building Performance Model Assumptions/Non-Structural Components_RCSW.xlsx
+++ b/Building Performance Model Assumptions/Non-Structural Components_RCSW.xlsx
@@ -5,19 +5,20 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Preetish\Desktop\Journal Paper\ATC-119\Online Appendix\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Preetish\Desktop\Research\Journal Paper\ATC-119\Online Appendix\Building Performance Model Assumptions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF586CB0-03B4-4967-A79F-FA0CC839FAFD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A7E5EAC-09F5-42B7-8BA2-11E91E2B1122}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4290" yWindow="3015" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="B2-B4" sheetId="1" r:id="rId1"/>
-    <sheet name="B1" sheetId="2" r:id="rId2"/>
-    <sheet name="L1" sheetId="3" r:id="rId3"/>
-    <sheet name="L2-L42" sheetId="4" r:id="rId4"/>
-    <sheet name="Roof" sheetId="5" r:id="rId5"/>
+    <sheet name="Definitions" sheetId="6" r:id="rId1"/>
+    <sheet name="B2-B4" sheetId="1" r:id="rId2"/>
+    <sheet name="B1" sheetId="2" r:id="rId3"/>
+    <sheet name="L1" sheetId="3" r:id="rId4"/>
+    <sheet name="L2-L42" sheetId="4" r:id="rId5"/>
+    <sheet name="Roof" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="159">
   <si>
     <t>Floor</t>
   </si>
@@ -1077,13 +1078,184 @@
   </si>
   <si>
     <t>Variable Air Volume (VAV) box with in-line coil, SDC A or B</t>
+  </si>
+  <si>
+    <t>NISTR</t>
+  </si>
+  <si>
+    <t>National Institute of Standards and Technology Interagency Reports</t>
+  </si>
+  <si>
+    <t>East-West quantity per floor</t>
+  </si>
+  <si>
+    <t>North-South quantity per floor</t>
+  </si>
+  <si>
+    <t>Norm Qty</t>
+  </si>
+  <si>
+    <t>National Institute of Standards and Technology Normative Quantity estimation tool packaged with Federal Emergency Management Agency's  Performance Assessment Calculation Tool</t>
+  </si>
+  <si>
+    <t>SP3</t>
+  </si>
+  <si>
+    <t>Seismic Performance Prediction Program by Haselton Baker Risk Group</t>
+  </si>
+  <si>
+    <t>DS*</t>
+  </si>
+  <si>
+    <t>Damage State</t>
+  </si>
+  <si>
+    <t>RC</t>
+  </si>
+  <si>
+    <t>Repair Class (As defined below)</t>
+  </si>
+  <si>
+    <t>Not applicable</t>
+  </si>
+  <si>
+    <t>* DS1, DS2 and DS3 corresponds to damage state 1, 2 and 3 respectively for the component defined by a lognormal distribution</t>
+  </si>
+  <si>
+    <t>Repair Class Definitions (Source: REDi Guidelines)</t>
+  </si>
+  <si>
+    <t>Repair Class</t>
+  </si>
+  <si>
+    <t>Repair Description</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Heavily damaged </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">structural </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">or </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>non-structural</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> components which pose a risk to life-safety and must be repaired to achieve Re-occupancy. Consequently, these components must also be repaired to achieve Functional Recovery and Full Recovery, since by definition they follow Re-occupancy</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Damaged </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">non-structural </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>components which do not pose a "life-safety" risk or otherwise hinder Re-occupancy but must be repaired to achieve Functional Recovery. Consequently, the competent must all be prepaired to achieve Full Recovery, since by definition it follows Functional Recovery</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Minimal or minor cosmetic damage to </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">structural </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">or </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">non-structural </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>components which do not hinder Re-occupancy or Functional Recovery but must be repaired to achieve Full Recovery</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1123,13 +1295,53 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="4">
@@ -1185,7 +1397,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1206,42 +1418,68 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1555,209 +1793,337 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{692CACE8-9EA2-4262-AC8F-3EDF67DCF8FD}">
+  <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="10"/>
-    <col min="2" max="2" width="25.28515625" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.42578125" style="10" customWidth="1"/>
-    <col min="4" max="4" width="6.7109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.42578125" style="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.5703125" style="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7" style="10" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.140625" style="10" customWidth="1"/>
-    <col min="9" max="9" width="15.7109375" style="10" customWidth="1"/>
-    <col min="10" max="10" width="16.140625" style="10" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="10"/>
+    <col min="2" max="2" width="65.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="22" t="s">
+        <v>139</v>
+      </c>
+      <c r="B1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" s="23" t="s">
+        <v>143</v>
+      </c>
+      <c r="B4" s="24" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="23" t="s">
+        <v>145</v>
+      </c>
+      <c r="B5" s="24" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="B6" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="B7" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="25" t="s">
+        <v>153</v>
+      </c>
+      <c r="B12" s="25"/>
+    </row>
+    <row r="13" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="26" t="s">
+        <v>154</v>
+      </c>
+      <c r="B13" s="27" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A14" s="28">
+        <v>3</v>
+      </c>
+      <c r="B14" s="29" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A15" s="30">
+        <v>2</v>
+      </c>
+      <c r="B15" s="29" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A16" s="31">
+        <v>1</v>
+      </c>
+      <c r="B16" s="29" t="s">
+        <v>158</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A12:B12"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:X7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="8"/>
+    <col min="2" max="2" width="25.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" style="8" customWidth="1"/>
+    <col min="4" max="4" width="6.7109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.42578125" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7" style="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.140625" style="8" customWidth="1"/>
+    <col min="9" max="9" width="15.7109375" style="8" customWidth="1"/>
+    <col min="10" max="10" width="16.140625" style="8" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="F1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="G1" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="16" t="s">
+      <c r="H1" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="16" t="s">
+      <c r="I1" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="16" t="s">
+      <c r="J1" s="11" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:24" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="18" t="s">
+      <c r="A2" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="18">
+      <c r="D2" s="12">
         <v>6</v>
       </c>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18" t="s">
+      <c r="E2" s="12"/>
+      <c r="F2" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="18" t="s">
+      <c r="G2" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="18" t="s">
+      <c r="H2" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="18" t="s">
+      <c r="I2" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="J2" s="18" t="s">
+      <c r="J2" s="12" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:24" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="19"/>
-      <c r="B3" s="18" t="s">
+      <c r="A3" s="20"/>
+      <c r="B3" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="C3" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="18">
+      <c r="D3" s="12">
         <v>6</v>
       </c>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18" t="s">
+      <c r="E3" s="12"/>
+      <c r="F3" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="18" t="s">
+      <c r="G3" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="18" t="s">
+      <c r="H3" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="I3" s="18" t="s">
+      <c r="I3" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="J3" s="18" t="s">
+      <c r="J3" s="12" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:24" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="17" t="s">
+      <c r="A4" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="D4" s="8">
+      <c r="D4" s="16">
         <v>5.69</v>
       </c>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8" t="s">
+      <c r="E4" s="16"/>
+      <c r="F4" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="14" t="s">
+      <c r="G4" s="15" t="s">
         <v>103</v>
       </c>
-      <c r="H4" s="8" t="s">
+      <c r="H4" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="I4" s="8" t="s">
+      <c r="I4" s="16" t="s">
         <v>106</v>
       </c>
-      <c r="J4" s="8" t="s">
+      <c r="J4" s="16" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:24" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="19"/>
-      <c r="B5" s="14" t="s">
+      <c r="A5" s="20"/>
+      <c r="B5" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="16" t="s">
         <v>98</v>
       </c>
-      <c r="D5" s="8">
+      <c r="D5" s="16">
         <v>4.1399999999999997</v>
       </c>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8" t="s">
+      <c r="E5" s="16"/>
+      <c r="F5" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="G5" s="14" t="s">
+      <c r="G5" s="15" t="s">
         <v>103</v>
       </c>
-      <c r="H5" s="8" t="s">
+      <c r="H5" s="16" t="s">
         <v>108</v>
       </c>
-      <c r="I5" s="8" t="s">
+      <c r="I5" s="16" t="s">
         <v>107</v>
       </c>
-      <c r="J5" s="8" t="s">
+      <c r="J5" s="16" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="J6" s="20"/>
-      <c r="K6" s="20"/>
-      <c r="L6" s="20"/>
-      <c r="M6" s="20"/>
-      <c r="N6" s="20"/>
-      <c r="O6" s="20"/>
-      <c r="P6" s="20"/>
-      <c r="Q6" s="20"/>
-      <c r="R6" s="20"/>
-      <c r="S6" s="20"/>
-      <c r="T6" s="20"/>
-      <c r="U6" s="20"/>
-      <c r="V6" s="20"/>
-      <c r="W6" s="20"/>
-      <c r="X6" s="20"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="13"/>
+      <c r="M6" s="13"/>
+      <c r="N6" s="13"/>
+      <c r="O6" s="13"/>
+      <c r="P6" s="13"/>
+      <c r="Q6" s="13"/>
+      <c r="R6" s="13"/>
+      <c r="S6" s="13"/>
+      <c r="T6" s="13"/>
+      <c r="U6" s="13"/>
+      <c r="V6" s="13"/>
+      <c r="W6" s="13"/>
+      <c r="X6" s="13"/>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="J7" s="21"/>
-      <c r="K7" s="21"/>
-      <c r="L7" s="21"/>
-      <c r="M7" s="21"/>
-      <c r="N7" s="21"/>
-      <c r="O7" s="21"/>
-      <c r="P7" s="21"/>
-      <c r="Q7" s="21"/>
-      <c r="R7" s="21"/>
-      <c r="S7" s="21"/>
-      <c r="T7" s="21"/>
-      <c r="U7" s="21"/>
-      <c r="V7" s="21"/>
-      <c r="W7" s="21"/>
-      <c r="X7" s="21"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="14"/>
+      <c r="L7" s="14"/>
+      <c r="M7" s="14"/>
+      <c r="N7" s="14"/>
+      <c r="O7" s="14"/>
+      <c r="P7" s="14"/>
+      <c r="Q7" s="14"/>
+      <c r="R7" s="14"/>
+      <c r="S7" s="14"/>
+      <c r="T7" s="14"/>
+      <c r="U7" s="14"/>
+      <c r="V7" s="14"/>
+      <c r="W7" s="14"/>
+      <c r="X7" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1769,12 +2135,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A1:J5"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1787,152 +2153,152 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H1" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="I1" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="J1" s="17" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="D2" s="8">
+      <c r="D2" s="16">
         <v>5.69</v>
       </c>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8" t="s">
+      <c r="E2" s="16"/>
+      <c r="F2" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="G2" s="14" t="s">
+      <c r="G2" s="15" t="s">
         <v>103</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="H2" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="I2" s="16" t="s">
         <v>106</v>
       </c>
-      <c r="J2" s="8" t="s">
+      <c r="J2" s="16" t="s">
         <v>10</v>
       </c>
       <c r="K2" s="4"/>
       <c r="L2" s="4"/>
     </row>
     <row r="3" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="11"/>
-      <c r="B3" s="14" t="s">
+      <c r="A3" s="21"/>
+      <c r="B3" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="16" t="s">
         <v>98</v>
       </c>
-      <c r="D3" s="8">
+      <c r="D3" s="16">
         <v>4.1399999999999997</v>
       </c>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8" t="s">
+      <c r="E3" s="16"/>
+      <c r="F3" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="G3" s="14" t="s">
+      <c r="G3" s="15" t="s">
         <v>103</v>
       </c>
-      <c r="H3" s="8" t="s">
+      <c r="H3" s="16" t="s">
         <v>108</v>
       </c>
-      <c r="I3" s="8" t="s">
+      <c r="I3" s="16" t="s">
         <v>107</v>
       </c>
-      <c r="J3" s="8" t="s">
+      <c r="J3" s="16" t="s">
         <v>10</v>
       </c>
       <c r="K3" s="4"/>
     </row>
     <row r="4" spans="1:12" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="11"/>
-      <c r="B4" s="14" t="s">
+      <c r="A4" s="21"/>
+      <c r="B4" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="16" t="s">
         <v>101</v>
       </c>
-      <c r="D4" s="8">
+      <c r="D4" s="16">
         <v>1</v>
       </c>
-      <c r="E4" s="8"/>
-      <c r="F4" s="15" t="s">
+      <c r="E4" s="16"/>
+      <c r="F4" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="G4" s="14" t="s">
+      <c r="G4" s="15" t="s">
         <v>103</v>
       </c>
-      <c r="H4" s="14" t="s">
+      <c r="H4" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="I4" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="J4" s="8" t="s">
+      <c r="I4" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="J4" s="16" t="s">
         <v>10</v>
       </c>
       <c r="K4" s="4"/>
     </row>
     <row r="5" spans="1:12" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="11"/>
-      <c r="B5" s="14" t="s">
+      <c r="A5" s="21"/>
+      <c r="B5" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="16" t="s">
         <v>102</v>
       </c>
-      <c r="D5" s="8">
+      <c r="D5" s="16">
         <v>2</v>
       </c>
-      <c r="E5" s="8"/>
-      <c r="F5" s="15" t="s">
+      <c r="E5" s="16"/>
+      <c r="F5" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="G5" s="14" t="s">
+      <c r="G5" s="15" t="s">
         <v>103</v>
       </c>
-      <c r="H5" s="14" t="s">
+      <c r="H5" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="I5" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="J5" s="8" t="s">
+      <c r="I5" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="J5" s="16" t="s">
         <v>10</v>
       </c>
       <c r="K5" s="4"/>
@@ -1995,11 +2361,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:X28"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="A2" sqref="A1:J21"/>
     </sheetView>
   </sheetViews>
@@ -2015,363 +2381,363 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="36" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H1" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="I1" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="J1" s="17" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:19" ht="24" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="D2" s="8">
+      <c r="D2" s="16">
         <v>42</v>
       </c>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8" t="s">
+      <c r="E2" s="16"/>
+      <c r="F2" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="H2" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="I2" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="J2" s="8" t="s">
+      <c r="J2" s="16" t="s">
         <v>37</v>
       </c>
       <c r="K2" s="3"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A3" s="11"/>
-      <c r="B3" s="8" t="s">
+      <c r="A3" s="21"/>
+      <c r="B3" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="D3" s="8">
+      <c r="D3" s="16">
         <v>174</v>
       </c>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8" t="s">
+      <c r="E3" s="16"/>
+      <c r="F3" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="G3" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="8" t="s">
+      <c r="H3" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="I3" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="J3" s="8" t="s">
+      <c r="I3" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3" s="16" t="s">
         <v>10</v>
       </c>
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
     </row>
     <row r="4" spans="1:19" ht="36" x14ac:dyDescent="0.25">
-      <c r="A4" s="11"/>
-      <c r="B4" s="8" t="s">
+      <c r="A4" s="21"/>
+      <c r="B4" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="D4" s="8">
+      <c r="D4" s="16">
         <v>0.02</v>
       </c>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8" t="s">
+      <c r="E4" s="16"/>
+      <c r="F4" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="8" t="s">
+      <c r="G4" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="H4" s="8" t="s">
+      <c r="H4" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="I4" s="8" t="s">
+      <c r="I4" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="J4" s="8" t="s">
+      <c r="J4" s="16" t="s">
         <v>10</v>
       </c>
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
     </row>
     <row r="5" spans="1:19" ht="36" x14ac:dyDescent="0.25">
-      <c r="A5" s="11"/>
-      <c r="B5" s="8" t="s">
+      <c r="A5" s="21"/>
+      <c r="B5" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="D5" s="8">
+      <c r="D5" s="16">
         <v>0.02</v>
       </c>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8" t="s">
+      <c r="E5" s="16"/>
+      <c r="F5" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="G5" s="8" t="s">
+      <c r="G5" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="H5" s="8" t="s">
+      <c r="H5" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="I5" s="8" t="s">
+      <c r="I5" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="J5" s="8" t="s">
+      <c r="J5" s="16" t="s">
         <v>10</v>
       </c>
       <c r="K5" s="3"/>
       <c r="L5" s="3"/>
     </row>
     <row r="6" spans="1:19" ht="36" x14ac:dyDescent="0.25">
-      <c r="A6" s="11"/>
-      <c r="B6" s="8" t="s">
+      <c r="A6" s="21"/>
+      <c r="B6" s="16" t="s">
         <v>120</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="16" t="s">
         <v>121</v>
       </c>
-      <c r="D6" s="8">
+      <c r="D6" s="16">
         <v>0.42</v>
       </c>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8" t="s">
+      <c r="E6" s="16"/>
+      <c r="F6" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="G6" s="8" t="s">
+      <c r="G6" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="H6" s="8" t="s">
+      <c r="H6" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="I6" s="8" t="s">
+      <c r="I6" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="J6" s="8" t="s">
+      <c r="J6" s="16" t="s">
         <v>10</v>
       </c>
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
     </row>
     <row r="7" spans="1:19" ht="36" x14ac:dyDescent="0.25">
-      <c r="A7" s="11"/>
-      <c r="B7" s="8" t="s">
+      <c r="A7" s="21"/>
+      <c r="B7" s="16" t="s">
         <v>122</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="16" t="s">
         <v>123</v>
       </c>
-      <c r="D7" s="8">
+      <c r="D7" s="16">
         <v>0.42</v>
       </c>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8" t="s">
+      <c r="E7" s="16"/>
+      <c r="F7" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="G7" s="8" t="s">
+      <c r="G7" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="H7" s="8" t="s">
+      <c r="H7" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="I7" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="J7" s="8" t="s">
+      <c r="I7" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="J7" s="16" t="s">
         <v>10</v>
       </c>
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
     </row>
     <row r="8" spans="1:19" ht="36" x14ac:dyDescent="0.25">
-      <c r="A8" s="11"/>
-      <c r="B8" s="8" t="s">
+      <c r="A8" s="21"/>
+      <c r="B8" s="16" t="s">
         <v>124</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="16" t="s">
         <v>125</v>
       </c>
-      <c r="D8" s="8">
+      <c r="D8" s="16">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8" t="s">
+      <c r="E8" s="16"/>
+      <c r="F8" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="G8" s="8" t="s">
+      <c r="G8" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="H8" s="8" t="s">
+      <c r="H8" s="16" t="s">
         <v>126</v>
       </c>
-      <c r="I8" s="8" t="s">
+      <c r="I8" s="16" t="s">
         <v>127</v>
       </c>
-      <c r="J8" s="8" t="s">
+      <c r="J8" s="16" t="s">
         <v>10</v>
       </c>
       <c r="K8" s="3"/>
       <c r="L8" s="3"/>
     </row>
     <row r="9" spans="1:19" ht="36" x14ac:dyDescent="0.25">
-      <c r="A9" s="11"/>
-      <c r="B9" s="8" t="s">
+      <c r="A9" s="21"/>
+      <c r="B9" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="D9" s="8">
+      <c r="D9" s="16">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8" t="s">
+      <c r="E9" s="16"/>
+      <c r="F9" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="G9" s="8" t="s">
+      <c r="G9" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="H9" s="8" t="s">
+      <c r="H9" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="I9" s="8" t="s">
+      <c r="I9" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="J9" s="8" t="s">
+      <c r="J9" s="16" t="s">
         <v>10</v>
       </c>
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
     </row>
     <row r="10" spans="1:19" ht="36" x14ac:dyDescent="0.25">
-      <c r="A10" s="11"/>
-      <c r="B10" s="8" t="s">
+      <c r="A10" s="21"/>
+      <c r="B10" s="16" t="s">
         <v>128</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="16" t="s">
         <v>129</v>
       </c>
-      <c r="D10" s="8">
+      <c r="D10" s="16">
         <v>0.36</v>
       </c>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8" t="s">
+      <c r="E10" s="16"/>
+      <c r="F10" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="G10" s="8" t="s">
+      <c r="G10" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="H10" s="8" t="s">
+      <c r="H10" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="I10" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="J10" s="8" t="s">
+      <c r="I10" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="J10" s="16" t="s">
         <v>10</v>
       </c>
       <c r="K10" s="3"/>
       <c r="L10" s="3"/>
     </row>
     <row r="11" spans="1:19" ht="36" x14ac:dyDescent="0.25">
-      <c r="A11" s="11"/>
-      <c r="B11" s="8" t="s">
+      <c r="A11" s="21"/>
+      <c r="B11" s="16" t="s">
         <v>130</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="16" t="s">
         <v>131</v>
       </c>
-      <c r="D11" s="8">
+      <c r="D11" s="16">
         <v>0.36</v>
       </c>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8" t="s">
+      <c r="E11" s="16"/>
+      <c r="F11" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="G11" s="8" t="s">
+      <c r="G11" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="H11" s="8" t="s">
+      <c r="H11" s="16" t="s">
         <v>132</v>
       </c>
-      <c r="I11" s="8" t="s">
+      <c r="I11" s="16" t="s">
         <v>106</v>
       </c>
-      <c r="J11" s="8" t="s">
+      <c r="J11" s="16" t="s">
         <v>10</v>
       </c>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
     </row>
     <row r="12" spans="1:19" ht="36" x14ac:dyDescent="0.25">
-      <c r="A12" s="11"/>
-      <c r="B12" s="8" t="s">
+      <c r="A12" s="21"/>
+      <c r="B12" s="16" t="s">
         <v>133</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="D12" s="8">
+      <c r="D12" s="16">
         <v>2.0499999999999998</v>
       </c>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8" t="s">
+      <c r="E12" s="16"/>
+      <c r="F12" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="G12" s="8" t="s">
+      <c r="G12" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="H12" s="8" t="s">
+      <c r="H12" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="I12" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="J12" s="8" t="s">
+      <c r="I12" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="J12" s="16" t="s">
         <v>10</v>
       </c>
       <c r="K12" s="3"/>
@@ -2385,269 +2751,269 @@
       <c r="S12" s="5"/>
     </row>
     <row r="13" spans="1:19" ht="24" x14ac:dyDescent="0.25">
-      <c r="A13" s="11"/>
-      <c r="B13" s="8" t="s">
+      <c r="A13" s="21"/>
+      <c r="B13" s="16" t="s">
         <v>134</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C13" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="D13" s="8">
+      <c r="D13" s="16">
         <v>0.15</v>
       </c>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8" t="s">
+      <c r="E13" s="16"/>
+      <c r="F13" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="G13" s="8" t="s">
+      <c r="G13" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="H13" s="8" t="s">
+      <c r="H13" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="I13" s="8" t="s">
+      <c r="I13" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="J13" s="8" t="s">
+      <c r="J13" s="16" t="s">
         <v>10</v>
       </c>
       <c r="K13" s="3"/>
     </row>
     <row r="14" spans="1:19" ht="24" x14ac:dyDescent="0.25">
-      <c r="A14" s="11"/>
-      <c r="B14" s="8" t="s">
+      <c r="A14" s="21"/>
+      <c r="B14" s="16" t="s">
         <v>136</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="C14" s="16" t="s">
         <v>135</v>
       </c>
-      <c r="D14" s="8">
+      <c r="D14" s="16">
         <v>0.15</v>
       </c>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8" t="s">
+      <c r="E14" s="16"/>
+      <c r="F14" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="G14" s="8" t="s">
+      <c r="G14" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="H14" s="8" t="s">
+      <c r="H14" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="I14" s="8" t="s">
+      <c r="I14" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="J14" s="8" t="s">
+      <c r="J14" s="16" t="s">
         <v>10</v>
       </c>
       <c r="K14" s="3"/>
     </row>
     <row r="15" spans="1:19" ht="36" x14ac:dyDescent="0.25">
-      <c r="A15" s="11"/>
-      <c r="B15" s="14" t="s">
+      <c r="A15" s="21"/>
+      <c r="B15" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="C15" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="D15" s="8">
+      <c r="D15" s="16">
         <v>5.69</v>
       </c>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8" t="s">
+      <c r="E15" s="16"/>
+      <c r="F15" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="G15" s="14" t="s">
+      <c r="G15" s="15" t="s">
         <v>103</v>
       </c>
-      <c r="H15" s="8" t="s">
+      <c r="H15" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="I15" s="8" t="s">
+      <c r="I15" s="16" t="s">
         <v>106</v>
       </c>
-      <c r="J15" s="8" t="s">
+      <c r="J15" s="16" t="s">
         <v>10</v>
       </c>
       <c r="K15" s="3"/>
     </row>
     <row r="16" spans="1:19" ht="36" x14ac:dyDescent="0.25">
-      <c r="A16" s="11"/>
-      <c r="B16" s="14" t="s">
+      <c r="A16" s="21"/>
+      <c r="B16" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="C16" s="8" t="s">
+      <c r="C16" s="16" t="s">
         <v>98</v>
       </c>
-      <c r="D16" s="8">
+      <c r="D16" s="16">
         <v>4.1399999999999997</v>
       </c>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8" t="s">
+      <c r="E16" s="16"/>
+      <c r="F16" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="G16" s="14" t="s">
+      <c r="G16" s="15" t="s">
         <v>103</v>
       </c>
-      <c r="H16" s="8" t="s">
+      <c r="H16" s="16" t="s">
         <v>108</v>
       </c>
-      <c r="I16" s="8" t="s">
+      <c r="I16" s="16" t="s">
         <v>107</v>
       </c>
-      <c r="J16" s="8" t="s">
+      <c r="J16" s="16" t="s">
         <v>10</v>
       </c>
       <c r="K16" s="3"/>
     </row>
     <row r="17" spans="1:24" ht="96" x14ac:dyDescent="0.25">
-      <c r="A17" s="11"/>
-      <c r="B17" s="8" t="s">
+      <c r="A17" s="21"/>
+      <c r="B17" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="C17" s="8" t="s">
+      <c r="C17" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="D17" s="8">
+      <c r="D17" s="16">
         <v>68.900000000000006</v>
       </c>
-      <c r="E17" s="8">
+      <c r="E17" s="16">
         <v>68.900000000000006</v>
       </c>
-      <c r="F17" s="8" t="s">
+      <c r="F17" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="G17" s="8" t="s">
+      <c r="G17" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="H17" s="8" t="s">
+      <c r="H17" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="I17" s="8" t="s">
+      <c r="I17" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="J17" s="8" t="s">
+      <c r="J17" s="16" t="s">
         <v>62</v>
       </c>
       <c r="K17" s="3"/>
     </row>
     <row r="18" spans="1:24" ht="24" x14ac:dyDescent="0.25">
-      <c r="A18" s="11"/>
-      <c r="B18" s="8" t="s">
+      <c r="A18" s="21"/>
+      <c r="B18" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="C18" s="8" t="s">
+      <c r="C18" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="D18" s="8">
+      <c r="D18" s="16">
         <v>1.1299999999999999</v>
       </c>
-      <c r="E18" s="8">
+      <c r="E18" s="16">
         <v>1.1299999999999999</v>
       </c>
-      <c r="F18" s="8" t="s">
+      <c r="F18" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="G18" s="8" t="s">
+      <c r="G18" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="H18" s="8" t="s">
+      <c r="H18" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="I18" s="8" t="s">
+      <c r="I18" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="J18" s="8" t="s">
+      <c r="J18" s="16" t="s">
         <v>68</v>
       </c>
       <c r="K18" s="3"/>
     </row>
     <row r="19" spans="1:24" ht="36" x14ac:dyDescent="0.25">
-      <c r="A19" s="11"/>
-      <c r="B19" s="8" t="s">
+      <c r="A19" s="21"/>
+      <c r="B19" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="C19" s="8" t="s">
+      <c r="C19" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="D19" s="8">
+      <c r="D19" s="16">
         <v>2</v>
       </c>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8" t="s">
+      <c r="E19" s="16"/>
+      <c r="F19" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="G19" s="8" t="s">
+      <c r="G19" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="H19" s="8" t="s">
+      <c r="H19" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="I19" s="8" t="s">
+      <c r="I19" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="J19" s="8" t="s">
+      <c r="J19" s="16" t="s">
         <v>73</v>
       </c>
       <c r="K19" s="3"/>
     </row>
     <row r="20" spans="1:24" ht="24" x14ac:dyDescent="0.25">
-      <c r="A20" s="11"/>
-      <c r="B20" s="8" t="s">
+      <c r="A20" s="21"/>
+      <c r="B20" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="C20" s="8" t="s">
+      <c r="C20" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="D20" s="8">
+      <c r="D20" s="16">
         <v>0.59</v>
       </c>
-      <c r="E20" s="8">
+      <c r="E20" s="16">
         <v>0.59</v>
       </c>
-      <c r="F20" s="8" t="s">
+      <c r="F20" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="G20" s="8" t="s">
+      <c r="G20" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="H20" s="8" t="s">
+      <c r="H20" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="I20" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="J20" s="8" t="s">
+      <c r="I20" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="J20" s="16" t="s">
         <v>10</v>
       </c>
       <c r="K20" s="3"/>
       <c r="L20" s="3"/>
     </row>
     <row r="21" spans="1:24" ht="24" x14ac:dyDescent="0.25">
-      <c r="A21" s="11"/>
-      <c r="B21" s="8" t="s">
+      <c r="A21" s="21"/>
+      <c r="B21" s="16" t="s">
         <v>138</v>
       </c>
-      <c r="C21" s="8" t="s">
+      <c r="C21" s="16" t="s">
         <v>137</v>
       </c>
-      <c r="D21" s="8">
+      <c r="D21" s="16">
         <v>0.15</v>
       </c>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8" t="s">
+      <c r="E21" s="16"/>
+      <c r="F21" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="G21" s="8" t="s">
+      <c r="G21" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="H21" s="8" t="s">
+      <c r="H21" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="I21" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="J21" s="8" t="s">
+      <c r="I21" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="J21" s="16" t="s">
         <v>10</v>
       </c>
       <c r="K21" s="3"/>
@@ -2711,7 +3077,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:W30"/>
   <sheetViews>
@@ -2731,624 +3097,624 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="36" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H1" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="I1" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="J1" s="17" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="54.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="21" t="s">
         <v>77</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="D2" s="8">
+      <c r="D2" s="16">
         <v>0.08</v>
       </c>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8" t="s">
+      <c r="E2" s="16"/>
+      <c r="F2" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="H2" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="I2" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="J2" s="8" t="s">
+      <c r="J2" s="16" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="76.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="11"/>
-      <c r="B3" s="8" t="s">
+      <c r="A3" s="21"/>
+      <c r="B3" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="D3" s="8">
+      <c r="D3" s="16">
         <v>0.08</v>
       </c>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8" t="s">
+      <c r="E3" s="16"/>
+      <c r="F3" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="G3" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="H3" s="8" t="s">
+      <c r="H3" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="I3" s="8" t="s">
+      <c r="I3" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="J3" s="8" t="s">
+      <c r="J3" s="16" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="86.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="11"/>
-      <c r="B4" s="8" t="s">
+      <c r="A4" s="21"/>
+      <c r="B4" s="16" t="s">
         <v>120</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="16" t="s">
         <v>121</v>
       </c>
-      <c r="D4" s="8">
+      <c r="D4" s="16">
         <v>1.66</v>
       </c>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8" t="s">
+      <c r="E4" s="16"/>
+      <c r="F4" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="8" t="s">
+      <c r="G4" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="H4" s="8" t="s">
+      <c r="H4" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="I4" s="8" t="s">
+      <c r="I4" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="J4" s="8" t="s">
+      <c r="J4" s="16" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="11"/>
-      <c r="B5" s="8" t="s">
+      <c r="A5" s="21"/>
+      <c r="B5" s="16" t="s">
         <v>122</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="16" t="s">
         <v>123</v>
       </c>
-      <c r="D5" s="8">
+      <c r="D5" s="16">
         <v>1.66</v>
       </c>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8" t="s">
+      <c r="E5" s="16"/>
+      <c r="F5" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="G5" s="8" t="s">
+      <c r="G5" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="H5" s="8" t="s">
+      <c r="H5" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="I5" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="J5" s="8" t="s">
+      <c r="I5" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="J5" s="16" t="s">
         <v>10</v>
       </c>
       <c r="K5" s="4"/>
     </row>
     <row r="6" spans="1:12" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="11"/>
-      <c r="B6" s="8" t="s">
+      <c r="A6" s="21"/>
+      <c r="B6" s="16" t="s">
         <v>124</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="16" t="s">
         <v>125</v>
       </c>
-      <c r="D6" s="8">
+      <c r="D6" s="16">
         <v>0.06</v>
       </c>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8" t="s">
+      <c r="E6" s="16"/>
+      <c r="F6" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="G6" s="8" t="s">
+      <c r="G6" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="H6" s="8" t="s">
+      <c r="H6" s="16" t="s">
         <v>126</v>
       </c>
-      <c r="I6" s="8" t="s">
+      <c r="I6" s="16" t="s">
         <v>127</v>
       </c>
-      <c r="J6" s="8" t="s">
+      <c r="J6" s="16" t="s">
         <v>10</v>
       </c>
       <c r="K6" s="4"/>
     </row>
     <row r="7" spans="1:12" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="11"/>
-      <c r="B7" s="8" t="s">
+      <c r="A7" s="21"/>
+      <c r="B7" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="D7" s="8">
+      <c r="D7" s="16">
         <v>0.06</v>
       </c>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8" t="s">
+      <c r="E7" s="16"/>
+      <c r="F7" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="G7" s="8" t="s">
+      <c r="G7" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="H7" s="8" t="s">
+      <c r="H7" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="I7" s="8" t="s">
+      <c r="I7" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="J7" s="8" t="s">
+      <c r="J7" s="16" t="s">
         <v>10</v>
       </c>
       <c r="K7" s="4"/>
     </row>
     <row r="8" spans="1:12" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="11"/>
-      <c r="B8" s="8" t="s">
+      <c r="A8" s="21"/>
+      <c r="B8" s="16" t="s">
         <v>128</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="16" t="s">
         <v>129</v>
       </c>
-      <c r="D8" s="8">
+      <c r="D8" s="16">
         <v>1.43</v>
       </c>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8" t="s">
+      <c r="E8" s="16"/>
+      <c r="F8" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="G8" s="8" t="s">
+      <c r="G8" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="H8" s="8" t="s">
+      <c r="H8" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="I8" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="J8" s="8" t="s">
+      <c r="I8" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="J8" s="16" t="s">
         <v>10</v>
       </c>
       <c r="K8" s="4"/>
     </row>
     <row r="9" spans="1:12" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="11"/>
-      <c r="B9" s="8" t="s">
+      <c r="A9" s="21"/>
+      <c r="B9" s="16" t="s">
         <v>130</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="16" t="s">
         <v>131</v>
       </c>
-      <c r="D9" s="8">
+      <c r="D9" s="16">
         <v>1.43</v>
       </c>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8" t="s">
+      <c r="E9" s="16"/>
+      <c r="F9" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="G9" s="8" t="s">
+      <c r="G9" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="H9" s="8" t="s">
+      <c r="H9" s="16" t="s">
         <v>132</v>
       </c>
-      <c r="I9" s="8" t="s">
+      <c r="I9" s="16" t="s">
         <v>106</v>
       </c>
-      <c r="J9" s="8" t="s">
+      <c r="J9" s="16" t="s">
         <v>10</v>
       </c>
       <c r="K9" s="4"/>
     </row>
     <row r="10" spans="1:12" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="11"/>
-      <c r="B10" s="8" t="s">
+      <c r="A10" s="21"/>
+      <c r="B10" s="16" t="s">
         <v>133</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="D10" s="8">
+      <c r="D10" s="16">
         <v>8.1999999999999993</v>
       </c>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8" t="s">
+      <c r="E10" s="16"/>
+      <c r="F10" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="G10" s="8" t="s">
+      <c r="G10" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="H10" s="8" t="s">
+      <c r="H10" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="I10" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="J10" s="8" t="s">
+      <c r="I10" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="J10" s="16" t="s">
         <v>10</v>
       </c>
       <c r="K10" s="4"/>
     </row>
     <row r="11" spans="1:12" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="11"/>
-      <c r="B11" s="8" t="s">
+      <c r="A11" s="21"/>
+      <c r="B11" s="16" t="s">
         <v>134</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="D11" s="8">
+      <c r="D11" s="16">
         <v>0.6</v>
       </c>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8" t="s">
+      <c r="E11" s="16"/>
+      <c r="F11" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="G11" s="8" t="s">
+      <c r="G11" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="H11" s="8" t="s">
+      <c r="H11" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="I11" s="8" t="s">
+      <c r="I11" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="J11" s="8" t="s">
+      <c r="J11" s="16" t="s">
         <v>10</v>
       </c>
       <c r="K11" s="4"/>
     </row>
     <row r="12" spans="1:12" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="11"/>
-      <c r="B12" s="8" t="s">
+      <c r="A12" s="21"/>
+      <c r="B12" s="16" t="s">
         <v>136</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="16" t="s">
         <v>135</v>
       </c>
-      <c r="D12" s="8">
+      <c r="D12" s="16">
         <v>0.57999999999999996</v>
       </c>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8" t="s">
+      <c r="E12" s="16"/>
+      <c r="F12" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="G12" s="8" t="s">
+      <c r="G12" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="H12" s="8" t="s">
+      <c r="H12" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="I12" s="8" t="s">
+      <c r="I12" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="J12" s="8" t="s">
+      <c r="J12" s="16" t="s">
         <v>10</v>
       </c>
       <c r="K12" s="4"/>
     </row>
     <row r="13" spans="1:12" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="11"/>
-      <c r="B13" s="8" t="s">
+      <c r="A13" s="21"/>
+      <c r="B13" s="16" t="s">
         <v>138</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C13" s="16" t="s">
         <v>137</v>
       </c>
-      <c r="D13" s="8">
+      <c r="D13" s="16">
         <v>0.6</v>
       </c>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8" t="s">
+      <c r="E13" s="16"/>
+      <c r="F13" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="G13" s="8" t="s">
+      <c r="G13" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="H13" s="8" t="s">
+      <c r="H13" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="I13" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="J13" s="8" t="s">
+      <c r="I13" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="J13" s="16" t="s">
         <v>10</v>
       </c>
       <c r="K13" s="4"/>
     </row>
     <row r="14" spans="1:12" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="11"/>
-      <c r="B14" s="14" t="s">
+      <c r="A14" s="21"/>
+      <c r="B14" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="C14" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="D14" s="8">
+      <c r="D14" s="16">
         <v>5.69</v>
       </c>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8" t="s">
+      <c r="E14" s="16"/>
+      <c r="F14" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="G14" s="14" t="s">
+      <c r="G14" s="15" t="s">
         <v>103</v>
       </c>
-      <c r="H14" s="8" t="s">
+      <c r="H14" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="I14" s="8" t="s">
+      <c r="I14" s="16" t="s">
         <v>106</v>
       </c>
-      <c r="J14" s="8" t="s">
+      <c r="J14" s="16" t="s">
         <v>10</v>
       </c>
       <c r="K14" s="4"/>
     </row>
     <row r="15" spans="1:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="A15" s="11"/>
-      <c r="B15" s="14" t="s">
+      <c r="A15" s="21"/>
+      <c r="B15" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="C15" s="16" t="s">
         <v>98</v>
       </c>
-      <c r="D15" s="8">
+      <c r="D15" s="16">
         <v>4.1399999999999997</v>
       </c>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8" t="s">
+      <c r="E15" s="16"/>
+      <c r="F15" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="G15" s="14" t="s">
+      <c r="G15" s="15" t="s">
         <v>103</v>
       </c>
-      <c r="H15" s="8" t="s">
+      <c r="H15" s="16" t="s">
         <v>108</v>
       </c>
-      <c r="I15" s="8" t="s">
+      <c r="I15" s="16" t="s">
         <v>107</v>
       </c>
-      <c r="J15" s="8" t="s">
+      <c r="J15" s="16" t="s">
         <v>10</v>
       </c>
       <c r="K15" s="4"/>
       <c r="L15" s="4"/>
     </row>
     <row r="16" spans="1:12" ht="156" x14ac:dyDescent="0.25">
-      <c r="A16" s="11"/>
-      <c r="B16" s="8" t="s">
+      <c r="A16" s="21"/>
+      <c r="B16" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="C16" s="8" t="s">
+      <c r="C16" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="D16" s="8">
+      <c r="D16" s="16">
         <v>68.900000000000006</v>
       </c>
-      <c r="E16" s="8">
+      <c r="E16" s="16">
         <v>68.900000000000006</v>
       </c>
-      <c r="F16" s="8" t="s">
+      <c r="F16" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="G16" s="8" t="s">
+      <c r="G16" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="H16" s="8" t="s">
+      <c r="H16" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="I16" s="8" t="s">
+      <c r="I16" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="J16" s="8" t="s">
+      <c r="J16" s="16" t="s">
         <v>62</v>
       </c>
       <c r="K16" s="4"/>
       <c r="L16" s="4"/>
     </row>
     <row r="17" spans="1:23" ht="36" x14ac:dyDescent="0.25">
-      <c r="A17" s="11"/>
-      <c r="B17" s="8" t="s">
+      <c r="A17" s="21"/>
+      <c r="B17" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="C17" s="8" t="s">
+      <c r="C17" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="D17" s="8">
+      <c r="D17" s="16">
         <v>4.51</v>
       </c>
-      <c r="E17" s="8">
+      <c r="E17" s="16">
         <v>4.51</v>
       </c>
-      <c r="F17" s="8" t="s">
+      <c r="F17" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="G17" s="8" t="s">
+      <c r="G17" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="H17" s="8" t="s">
+      <c r="H17" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="I17" s="8" t="s">
+      <c r="I17" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="J17" s="8" t="s">
+      <c r="J17" s="16" t="s">
         <v>68</v>
       </c>
       <c r="K17" s="4"/>
       <c r="L17" s="4"/>
     </row>
     <row r="18" spans="1:23" ht="36" x14ac:dyDescent="0.25">
-      <c r="A18" s="11"/>
-      <c r="B18" s="8" t="s">
+      <c r="A18" s="21"/>
+      <c r="B18" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="C18" s="8" t="s">
+      <c r="C18" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="D18" s="8">
+      <c r="D18" s="16">
         <v>2</v>
       </c>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8" t="s">
+      <c r="E18" s="16"/>
+      <c r="F18" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="G18" s="8" t="s">
+      <c r="G18" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="H18" s="8" t="s">
+      <c r="H18" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="I18" s="8" t="s">
+      <c r="I18" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="J18" s="8" t="s">
+      <c r="J18" s="16" t="s">
         <v>73</v>
       </c>
       <c r="K18" s="4"/>
     </row>
     <row r="19" spans="1:23" ht="36" x14ac:dyDescent="0.25">
-      <c r="A19" s="11"/>
-      <c r="B19" s="8" t="s">
+      <c r="A19" s="21"/>
+      <c r="B19" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="C19" s="8" t="s">
+      <c r="C19" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="D19" s="8">
+      <c r="D19" s="16">
         <v>2.38</v>
       </c>
-      <c r="E19" s="8">
+      <c r="E19" s="16">
         <v>2.38</v>
       </c>
-      <c r="F19" s="8" t="s">
+      <c r="F19" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="G19" s="8" t="s">
+      <c r="G19" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="H19" s="8" t="s">
+      <c r="H19" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="I19" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="J19" s="8" t="s">
+      <c r="I19" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="J19" s="16" t="s">
         <v>10</v>
       </c>
       <c r="K19" s="4"/>
     </row>
     <row r="20" spans="1:23" ht="36" x14ac:dyDescent="0.25">
-      <c r="A20" s="11"/>
-      <c r="B20" s="8" t="s">
+      <c r="A20" s="21"/>
+      <c r="B20" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="C20" s="8" t="s">
+      <c r="C20" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="D20" s="8">
+      <c r="D20" s="16">
         <v>3.43</v>
       </c>
-      <c r="E20" s="8">
+      <c r="E20" s="16">
         <v>3.43</v>
       </c>
-      <c r="F20" s="8" t="s">
+      <c r="F20" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="G20" s="8" t="s">
+      <c r="G20" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="H20" s="8" t="s">
+      <c r="H20" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="I20" s="8" t="s">
+      <c r="I20" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="J20" s="8" t="s">
+      <c r="J20" s="16" t="s">
         <v>10</v>
       </c>
       <c r="K20" s="4"/>
       <c r="L20" s="4"/>
     </row>
     <row r="21" spans="1:23" ht="60" x14ac:dyDescent="0.25">
-      <c r="A21" s="11"/>
-      <c r="B21" s="8" t="s">
+      <c r="A21" s="21"/>
+      <c r="B21" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="C21" s="8" t="s">
+      <c r="C21" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="D21" s="8">
+      <c r="D21" s="16">
         <v>1</v>
       </c>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8" t="s">
+      <c r="E21" s="16"/>
+      <c r="F21" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="G21" s="8" t="s">
+      <c r="G21" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="H21" s="8" t="s">
+      <c r="H21" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="I21" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="J21" s="8" t="s">
+      <c r="I21" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="J21" s="16" t="s">
         <v>10</v>
       </c>
       <c r="K21" s="4"/>
@@ -3423,193 +3789,194 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="A1:XFD1048576"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="10"/>
-    <col min="2" max="2" width="22.28515625" style="10" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" style="10" customWidth="1"/>
-    <col min="4" max="7" width="9.140625" style="10"/>
-    <col min="8" max="8" width="15.85546875" style="10" customWidth="1"/>
-    <col min="9" max="10" width="15.7109375" style="10" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="10"/>
+    <col min="1" max="1" width="9.140625" style="8"/>
+    <col min="2" max="2" width="22.28515625" style="8" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" style="8" customWidth="1"/>
+    <col min="4" max="7" width="9.140625" style="8"/>
+    <col min="8" max="8" width="15.85546875" style="8" customWidth="1"/>
+    <col min="9" max="10" width="15.7109375" style="8" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="36" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H1" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="I1" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="J1" s="17" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="21" t="s">
         <v>91</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="16" t="s">
         <v>112</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="16" t="s">
         <v>113</v>
       </c>
-      <c r="D2" s="8">
+      <c r="D2" s="16">
         <v>1</v>
       </c>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8" t="s">
+      <c r="E2" s="16"/>
+      <c r="F2" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="16" t="s">
         <v>103</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="H2" s="16" t="s">
         <v>114</v>
       </c>
-      <c r="I2" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="J2" s="8" t="s">
+      <c r="I2" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2" s="16" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A3" s="11"/>
-      <c r="B3" s="8" t="s">
+      <c r="A3" s="21"/>
+      <c r="B3" s="16" t="s">
         <v>115</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="16" t="s">
         <v>116</v>
       </c>
-      <c r="D3" s="8">
+      <c r="D3" s="16">
         <v>2</v>
       </c>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8" t="s">
+      <c r="E3" s="16"/>
+      <c r="F3" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="G3" s="16" t="s">
         <v>103</v>
       </c>
-      <c r="H3" s="8" t="s">
+      <c r="H3" s="16" t="s">
         <v>114</v>
       </c>
-      <c r="I3" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="J3" s="8" t="s">
+      <c r="I3" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3" s="16" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A4" s="11"/>
-      <c r="B4" s="8" t="s">
+      <c r="A4" s="21"/>
+      <c r="B4" s="16" t="s">
         <v>117</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="16" t="s">
         <v>118</v>
       </c>
-      <c r="D4" s="8">
+      <c r="D4" s="16">
         <v>2</v>
       </c>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8" t="s">
+      <c r="E4" s="16"/>
+      <c r="F4" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="G4" s="8" t="s">
+      <c r="G4" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="H4" s="8" t="s">
+      <c r="H4" s="16" t="s">
         <v>119</v>
       </c>
-      <c r="I4" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="J4" s="8" t="s">
+      <c r="I4" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="J4" s="16" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A5" s="11"/>
-      <c r="B5" s="8" t="s">
+      <c r="A5" s="21"/>
+      <c r="B5" s="16" t="s">
         <v>109</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="D5" s="8">
+      <c r="D5" s="16">
         <v>3</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="E5" s="18"/>
+      <c r="F5" s="16" t="s">
         <v>92</v>
       </c>
-      <c r="G5" s="8" t="s">
+      <c r="G5" s="16" t="s">
         <v>103</v>
       </c>
-      <c r="H5" s="8" t="s">
+      <c r="H5" s="16" t="s">
         <v>111</v>
       </c>
-      <c r="I5" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="J5" s="8" t="s">
+      <c r="I5" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="J5" s="16" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="12"/>
+      <c r="A6" s="9"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="12"/>
+      <c r="A7" s="9"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="12"/>
+      <c r="A8" s="9"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="12"/>
+      <c r="A9" s="9"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="12"/>
+      <c r="A10" s="9"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="12"/>
+      <c r="A11" s="9"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="13"/>
+      <c r="A12" s="10"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="13"/>
+      <c r="A13" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="1">
